--- a/archivos/Inventario_Productos.xlsx
+++ b/archivos/Inventario_Productos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Codigo de Barras</t>
   </si>
@@ -104,189 +104,6 @@
   </si>
   <si>
     <t>SOBRILLA GRANDE</t>
-  </si>
-  <si>
-    <t>VELAS</t>
-  </si>
-  <si>
-    <t>VELA LED TRASNPARENTE BRILLANTE PEQUEÑA</t>
-  </si>
-  <si>
-    <t>VELA LED PIEL PEQUEÑA</t>
-  </si>
-  <si>
-    <t>VELA LED TRASNPARENTE CRISTAL GRANDE</t>
-  </si>
-  <si>
-    <t>VELA LED TRASNPARENTE BRILLANTE GRANDE</t>
-  </si>
-  <si>
-    <t>PIMENTEROS</t>
-  </si>
-  <si>
-    <t>PIMENTERO DE MADERA 9"</t>
-  </si>
-  <si>
-    <t>PIMENTERO DE MADERA 7"</t>
-  </si>
-  <si>
-    <t>PLANTAS</t>
-  </si>
-  <si>
-    <t>PLANTA ARTIFICIAL EN MACETA</t>
-  </si>
-  <si>
-    <t>PLANTA OREJA DE ELEFANTE EN MACETA</t>
-  </si>
-  <si>
-    <t>SUCULENTA BONSAI BLANCO CON GRIS</t>
-  </si>
-  <si>
-    <t>SUCULENTA BONSAI GRIS</t>
-  </si>
-  <si>
-    <t>RODILLOS</t>
-  </si>
-  <si>
-    <t>RODILLO ROLLING PIN</t>
-  </si>
-  <si>
-    <t>CANASTA</t>
-  </si>
-  <si>
-    <t>CANASTA PANERA PLASTICA CAFE</t>
-  </si>
-  <si>
-    <t>CANASTA PANERA TELA ROJA</t>
-  </si>
-  <si>
-    <t>CANASTA PANERA TELA PARIS</t>
-  </si>
-  <si>
-    <t>CANASTA PANERA PLASTICA REDONDA CAFÉ CON PIEL</t>
-  </si>
-  <si>
-    <t>CANASTA PATO (3)</t>
-  </si>
-  <si>
-    <t>TAPETES</t>
-  </si>
-  <si>
-    <t>TAPETE DE MESA 13x13</t>
-  </si>
-  <si>
-    <t>TAPETE DE MESA 16x16</t>
-  </si>
-  <si>
-    <t>MADERA VARIADA</t>
-  </si>
-  <si>
-    <t>PINCHO DE MADERA GRANDE</t>
-  </si>
-  <si>
-    <t>PINCHO DE MADERA PEQUEÑO</t>
-  </si>
-  <si>
-    <t>SALVAMANTEL DE MADERA 19</t>
-  </si>
-  <si>
-    <t>SALVAMANTEL DE MADERA 14</t>
-  </si>
-  <si>
-    <t>PORTA CUBIERTOS</t>
-  </si>
-  <si>
-    <t>PLASTICO VARIADO</t>
-  </si>
-  <si>
-    <t>MANOJO DE PERA</t>
-  </si>
-  <si>
-    <t>MANOJO DE MANZANA</t>
-  </si>
-  <si>
-    <t>CERAMICA</t>
-  </si>
-  <si>
-    <t>PLATO DE CERAMICA PEQUEÑOS</t>
-  </si>
-  <si>
-    <t>JUEGOS DE MESA</t>
-  </si>
-  <si>
-    <t>AJEDREZ PEQUEÑO</t>
-  </si>
-  <si>
-    <t>AJEDREZ GRANDE</t>
-  </si>
-  <si>
-    <t>PALETAS</t>
-  </si>
-  <si>
-    <t>PALETA BAMBU FORESTRY Q.10.00</t>
-  </si>
-  <si>
-    <t>PALETA BAMBU FORESTRY Q.15.00</t>
-  </si>
-  <si>
-    <t>PAQUETE PALETAS CUCHARA BAMBU P</t>
-  </si>
-  <si>
-    <t>PAQUETE PALETAS CUCHARA BAMBU G</t>
-  </si>
-  <si>
-    <t>PALETA 36x6</t>
-  </si>
-  <si>
-    <t>PAQUETE PALETAS BAMBU KITCHEN SET (2)</t>
-  </si>
-  <si>
-    <t>PAQUETE PALETAS BAMBU KITCHEN SET (3)</t>
-  </si>
-  <si>
-    <t>PAQUETE PALETAS TENEDOR BAMBU 13CM</t>
-  </si>
-  <si>
-    <t>PAQUETE PALETAS CUCHARA BAMBU 14CM</t>
-  </si>
-  <si>
-    <t>MIMBRE</t>
-  </si>
-  <si>
-    <t>SALVAMANTEL DE MIMBRE PEQUEÑO</t>
-  </si>
-  <si>
-    <t>MOLCAJETES</t>
-  </si>
-  <si>
-    <t>MOLCAJETE DE BAMBU</t>
-  </si>
-  <si>
-    <t>TRATAMIENTO</t>
-  </si>
-  <si>
-    <t>CREMA DE PEINAR</t>
-  </si>
-  <si>
-    <t>SHAMPOO</t>
-  </si>
-  <si>
-    <t>ACONDICIONADOR</t>
-  </si>
-  <si>
-    <t>SET CAPILAR</t>
-  </si>
-  <si>
-    <t>SPRAY</t>
-  </si>
-  <si>
-    <t>GEL</t>
-  </si>
-  <si>
-    <t>CEPILLO</t>
-  </si>
-  <si>
-    <t>FILTRO DUCHA</t>
   </si>
 </sst>
 </file>
@@ -397,13 +214,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -452,29 +308,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7292,13 +7125,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7354,13 +7187,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7416,13 +7249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7478,13 +7311,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7540,13 +7373,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7602,13 +7435,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7664,13 +7497,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7726,13 +7559,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7788,13 +7621,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7850,13 +7683,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7912,13 +7745,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7974,13 +7807,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8036,13 +7869,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8098,13 +7931,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8160,13 +7993,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8222,13 +8055,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8284,13 +8117,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8346,13 +8179,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8408,13 +8241,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8470,13 +8303,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8532,13 +8365,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8594,13 +8427,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8656,13 +8489,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8718,13 +8551,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8780,13 +8613,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8842,13 +8675,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8904,13 +8737,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8966,13 +8799,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9028,13 +8861,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9090,13 +8923,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9152,13 +8985,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9214,13 +9047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9276,13 +9109,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9338,13 +9171,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9400,13 +9233,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9462,13 +9295,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9524,13 +9357,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9586,13 +9419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9648,13 +9481,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9710,13 +9543,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9772,13 +9605,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9834,13 +9667,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9896,13 +9729,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9958,13 +9791,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10020,13 +9853,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10082,13 +9915,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10144,13 +9977,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10206,13 +10039,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10268,15 +10101,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="CATEGORIA" dataDxfId="2"/>
+    <tableColumn id="1" name="CATEGORIA" dataDxfId="0"/>
     <tableColumn id="2" name="APLICA PESO"/>
-    <tableColumn id="3" name="FECHA_CREACION" dataDxfId="1">
+    <tableColumn id="3" name="FECHA_CREACION" dataDxfId="2">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="FECHA_ACTUALIZACION" dataDxfId="0"/>
+    <tableColumn id="4" name="FECHA_ACTUALIZACION" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10579,10 +10412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10691,7 +10524,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F43" si="0">SUM(E3-D3)</f>
+        <f t="shared" ref="F3:F4" si="0">SUM(E3-D3)</f>
         <v>14</v>
       </c>
       <c r="G3" s="7">
@@ -10744,1371 +10577,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>70</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>71</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>5</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>72</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>73</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>90</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>91</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6">
-        <v>35</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>3</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>6</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>101</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="E12" s="6">
-        <v>35</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>102</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6">
-        <v>29</v>
-      </c>
-      <c r="E13" s="6">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>3</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>103</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6">
-        <v>50</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>3</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>120</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6">
-        <v>15</v>
-      </c>
-      <c r="E15" s="6">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>135</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>35</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>136</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="6">
-        <v>16.25</v>
-      </c>
-      <c r="E17" s="6">
-        <v>35</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>18.75</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>3</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>137</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="E18" s="6">
-        <v>35</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>2</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>138</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="6">
-        <v>15.75</v>
-      </c>
-      <c r="E19" s="6">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>14.25</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>139</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6">
-        <v>29.95</v>
-      </c>
-      <c r="E20" s="6">
-        <v>50</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>20.05</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>150</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>3</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>151</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="E22" s="6">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="0"/>
-        <v>10.7</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>3</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>200</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="E23" s="6">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>2</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>201</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="E24" s="6">
-        <v>6</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>2</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>202</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6">
-        <v>4</v>
-      </c>
-      <c r="E25" s="6">
-        <v>15</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>2</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>203</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="E26" s="6">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>3</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>204</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="6">
-        <v>19</v>
-      </c>
-      <c r="E27" s="6">
-        <v>35</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>2</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>300</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E28" s="6">
-        <v>25</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>2</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>301</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="E29" s="6">
-        <v>25</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>350</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="6">
-        <v>5</v>
-      </c>
-      <c r="E30" s="6">
-        <v>10</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>400</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="6">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6">
-        <v>25</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>401</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="E32" s="6">
-        <v>30</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>2</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>450</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="E33" s="6">
-        <v>10</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>2</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>451</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="E34" s="6">
-        <v>15</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <v>2</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>452</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="E35" s="6">
-        <v>20</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="0"/>
-        <v>13.84</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>6</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>453</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="E36" s="6">
-        <v>25</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>3</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>454</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="E37" s="6">
-        <v>12</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>6</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>455</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="E38" s="6">
-        <v>15</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>3</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>456</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="E39" s="6">
-        <v>20</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>3</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>457</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="6">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6">
-        <v>10</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
-        <v>3</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>458</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="6">
-        <v>6</v>
-      </c>
-      <c r="E41" s="6">
-        <v>10</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>3</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>500</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="6">
-        <v>11</v>
-      </c>
-      <c r="E42" s="6">
-        <v>20</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>3</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>550</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="6">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6">
-        <v>45</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>2</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:L1">
     <sortState ref="A2:K97">
@@ -12122,10 +10590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12151,145 +10619,44 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>74</v>
+      <c r="A2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="11">
         <f ca="1">TODAY()</f>
-        <v>45168</v>
+        <v>45205</v>
       </c>
       <c r="D2" s="11">
         <v>44504</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>75</v>
+      <c r="A3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:C10" ca="1" si="0">TODAY()</f>
-        <v>45168</v>
+        <f t="shared" ref="C3" ca="1" si="0">TODAY()</f>
+        <v>45205</v>
       </c>
       <c r="D3" s="11">
         <v>44504</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="D4" s="11">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="D5" s="11">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="D6" s="11">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="D7" s="11">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="D8" s="11">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="D9" s="11">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="D10" s="11">
-        <v>44504</v>
-      </c>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>